--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tgfbr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>22.1271393613031</v>
+        <v>0.6423476666666667</v>
       </c>
       <c r="H2">
-        <v>22.1271393613031</v>
+        <v>1.927043</v>
       </c>
       <c r="I2">
-        <v>0.4114963673466461</v>
+        <v>0.01173234890143342</v>
       </c>
       <c r="J2">
-        <v>0.4114963673466461</v>
+        <v>0.01173234890143342</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.7027948823333</v>
+        <v>68.65869266666667</v>
       </c>
       <c r="N2">
-        <v>24.7027948823333</v>
+        <v>205.976078</v>
       </c>
       <c r="O2">
-        <v>0.3984878066090406</v>
+        <v>0.6475952735309433</v>
       </c>
       <c r="P2">
-        <v>0.3984878066090406</v>
+        <v>0.6475952735309431</v>
       </c>
       <c r="Q2">
-        <v>546.602184975074</v>
+        <v>44.10275103081711</v>
       </c>
       <c r="R2">
-        <v>546.602184975074</v>
+        <v>396.924759277354</v>
       </c>
       <c r="S2">
-        <v>0.163976284851553</v>
+        <v>0.007597813695984237</v>
       </c>
       <c r="T2">
-        <v>0.163976284851553</v>
+        <v>0.007597813695984237</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>22.1271393613031</v>
+        <v>0.6423476666666667</v>
       </c>
       <c r="H3">
-        <v>22.1271393613031</v>
+        <v>1.927043</v>
       </c>
       <c r="I3">
-        <v>0.4114963673466461</v>
+        <v>0.01173234890143342</v>
       </c>
       <c r="J3">
-        <v>0.4114963673466461</v>
+        <v>0.01173234890143342</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>28.2169386162403</v>
+        <v>28.23943666666667</v>
       </c>
       <c r="N3">
-        <v>28.2169386162403</v>
+        <v>84.71831</v>
       </c>
       <c r="O3">
-        <v>0.4551754581603631</v>
+        <v>0.2663570336431459</v>
       </c>
       <c r="P3">
-        <v>0.4551754581603631</v>
+        <v>0.2663570336431459</v>
       </c>
       <c r="Q3">
-        <v>624.3601331108841</v>
+        <v>18.13953625081444</v>
       </c>
       <c r="R3">
-        <v>624.3601331108841</v>
+        <v>163.25582625733</v>
       </c>
       <c r="S3">
-        <v>0.1873030475383347</v>
+        <v>0.003124993651052227</v>
       </c>
       <c r="T3">
-        <v>0.1873030475383347</v>
+        <v>0.003124993651052227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>22.1271393613031</v>
+        <v>0.6423476666666667</v>
       </c>
       <c r="H4">
-        <v>22.1271393613031</v>
+        <v>1.927043</v>
       </c>
       <c r="I4">
-        <v>0.4114963673466461</v>
+        <v>0.01173234890143342</v>
       </c>
       <c r="J4">
-        <v>0.4114963673466461</v>
+        <v>0.01173234890143342</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.071610960729769</v>
+        <v>9.122861666666667</v>
       </c>
       <c r="N4">
-        <v>9.071610960729769</v>
+        <v>27.368585</v>
       </c>
       <c r="O4">
-        <v>0.1463367352305963</v>
+        <v>0.08604769282591093</v>
       </c>
       <c r="P4">
-        <v>0.1463367352305963</v>
+        <v>0.08604769282591092</v>
       </c>
       <c r="Q4">
-        <v>200.7287999595923</v>
+        <v>5.860048904906111</v>
       </c>
       <c r="R4">
-        <v>200.7287999595923</v>
+        <v>52.740440144155</v>
       </c>
       <c r="S4">
-        <v>0.06021703495675833</v>
+        <v>0.001009541554396956</v>
       </c>
       <c r="T4">
-        <v>0.06021703495675833</v>
+        <v>0.001009541554396956</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.6452414351065</v>
+        <v>22.27635266666667</v>
       </c>
       <c r="H5">
-        <v>31.6452414351065</v>
+        <v>66.829058</v>
       </c>
       <c r="I5">
-        <v>0.5885036326533539</v>
+        <v>0.4068730304461968</v>
       </c>
       <c r="J5">
-        <v>0.5885036326533539</v>
+        <v>0.4068730304461968</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7027948823333</v>
+        <v>68.65869266666667</v>
       </c>
       <c r="N5">
-        <v>24.7027948823333</v>
+        <v>205.976078</v>
       </c>
       <c r="O5">
-        <v>0.3984878066090406</v>
+        <v>0.6475952735309433</v>
       </c>
       <c r="P5">
-        <v>0.3984878066090406</v>
+        <v>0.6475952735309431</v>
       </c>
       <c r="Q5">
-        <v>781.7259081733505</v>
+        <v>1529.465251474947</v>
       </c>
       <c r="R5">
-        <v>781.7259081733505</v>
+        <v>13765.18726327453</v>
       </c>
       <c r="S5">
-        <v>0.2345115217574876</v>
+        <v>0.2634890514441686</v>
       </c>
       <c r="T5">
-        <v>0.2345115217574876</v>
+        <v>0.2634890514441686</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.6452414351065</v>
+        <v>22.27635266666667</v>
       </c>
       <c r="H6">
-        <v>31.6452414351065</v>
+        <v>66.829058</v>
       </c>
       <c r="I6">
-        <v>0.5885036326533539</v>
+        <v>0.4068730304461968</v>
       </c>
       <c r="J6">
-        <v>0.5885036326533539</v>
+        <v>0.4068730304461968</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.2169386162403</v>
+        <v>28.23943666666667</v>
       </c>
       <c r="N6">
-        <v>28.2169386162403</v>
+        <v>84.71831</v>
       </c>
       <c r="O6">
-        <v>0.4551754581603631</v>
+        <v>0.2663570336431459</v>
       </c>
       <c r="P6">
-        <v>0.4551754581603631</v>
+        <v>0.2663570336431459</v>
       </c>
       <c r="Q6">
-        <v>892.9318350705041</v>
+        <v>629.0716502946644</v>
       </c>
       <c r="R6">
-        <v>892.9318350705041</v>
+        <v>5661.644852651981</v>
       </c>
       <c r="S6">
-        <v>0.2678724106220284</v>
+        <v>0.1083734934590464</v>
       </c>
       <c r="T6">
-        <v>0.2678724106220284</v>
+        <v>0.1083734934590464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>22.27635266666667</v>
+      </c>
+      <c r="H7">
+        <v>66.829058</v>
+      </c>
+      <c r="I7">
+        <v>0.4068730304461968</v>
+      </c>
+      <c r="J7">
+        <v>0.4068730304461968</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>9.122861666666667</v>
+      </c>
+      <c r="N7">
+        <v>27.368585</v>
+      </c>
+      <c r="O7">
+        <v>0.08604769282591093</v>
+      </c>
+      <c r="P7">
+        <v>0.08604769282591092</v>
+      </c>
+      <c r="Q7">
+        <v>203.2240838158811</v>
+      </c>
+      <c r="R7">
+        <v>1829.01675434293</v>
+      </c>
+      <c r="S7">
+        <v>0.03501048554298185</v>
+      </c>
+      <c r="T7">
+        <v>0.03501048554298184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>31.831433</v>
+      </c>
+      <c r="H8">
+        <v>95.494299</v>
+      </c>
+      <c r="I8">
+        <v>0.5813946206523698</v>
+      </c>
+      <c r="J8">
+        <v>0.5813946206523697</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>68.65869266666667</v>
+      </c>
+      <c r="N8">
+        <v>205.976078</v>
+      </c>
+      <c r="O8">
+        <v>0.6475952735309433</v>
+      </c>
+      <c r="P8">
+        <v>0.6475952735309431</v>
+      </c>
+      <c r="Q8">
+        <v>2185.504575486591</v>
+      </c>
+      <c r="R8">
+        <v>19669.54117937932</v>
+      </c>
+      <c r="S8">
+        <v>0.3765084083907904</v>
+      </c>
+      <c r="T8">
+        <v>0.3765084083907903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>31.6452414351065</v>
-      </c>
-      <c r="H7">
-        <v>31.6452414351065</v>
-      </c>
-      <c r="I7">
-        <v>0.5885036326533539</v>
-      </c>
-      <c r="J7">
-        <v>0.5885036326533539</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>9.071610960729769</v>
-      </c>
-      <c r="N7">
-        <v>9.071610960729769</v>
-      </c>
-      <c r="O7">
-        <v>0.1463367352305963</v>
-      </c>
-      <c r="P7">
-        <v>0.1463367352305963</v>
-      </c>
-      <c r="Q7">
-        <v>287.073319057652</v>
-      </c>
-      <c r="R7">
-        <v>287.073319057652</v>
-      </c>
-      <c r="S7">
-        <v>0.08611970027383796</v>
-      </c>
-      <c r="T7">
-        <v>0.08611970027383796</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>31.831433</v>
+      </c>
+      <c r="H9">
+        <v>95.494299</v>
+      </c>
+      <c r="I9">
+        <v>0.5813946206523698</v>
+      </c>
+      <c r="J9">
+        <v>0.5813946206523697</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>28.23943666666667</v>
+      </c>
+      <c r="N9">
+        <v>84.71831</v>
+      </c>
+      <c r="O9">
+        <v>0.2663570336431459</v>
+      </c>
+      <c r="P9">
+        <v>0.2663570336431459</v>
+      </c>
+      <c r="Q9">
+        <v>898.9017362127433</v>
+      </c>
+      <c r="R9">
+        <v>8090.11562591469</v>
+      </c>
+      <c r="S9">
+        <v>0.1548585465330473</v>
+      </c>
+      <c r="T9">
+        <v>0.1548585465330473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>31.831433</v>
+      </c>
+      <c r="H10">
+        <v>95.494299</v>
+      </c>
+      <c r="I10">
+        <v>0.5813946206523698</v>
+      </c>
+      <c r="J10">
+        <v>0.5813946206523697</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9.122861666666667</v>
+      </c>
+      <c r="N10">
+        <v>27.368585</v>
+      </c>
+      <c r="O10">
+        <v>0.08604769282591093</v>
+      </c>
+      <c r="P10">
+        <v>0.08604769282591092</v>
+      </c>
+      <c r="Q10">
+        <v>290.3937599107683</v>
+      </c>
+      <c r="R10">
+        <v>2613.543839196915</v>
+      </c>
+      <c r="S10">
+        <v>0.05002766572853213</v>
+      </c>
+      <c r="T10">
+        <v>0.05002766572853211</v>
       </c>
     </row>
   </sheetData>
